--- a/ручное тестирование.xlsx
+++ b/ручное тестирование.xlsx
@@ -564,7 +564,7 @@
   <dimension ref="A2:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,9 +587,14 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
